--- a/biology/Botanique/Neogaerrhinum/Neogaerrhinum.xlsx
+++ b/biology/Botanique/Neogaerrhinum/Neogaerrhinum.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Neogaerrhinum est un genre de végétaux de la famille des Scrophulariaceae selon la classification classique de Cronquist (1981)[1]. Ce genre n'existe pas selon la classification APG III, et est inclus dans le genre Antirrhinum.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Neogaerrhinum est un genre de végétaux de la famille des Scrophulariaceae selon la classification classique de Cronquist (1981). Ce genre n'existe pas selon la classification APG III, et est inclus dans le genre Antirrhinum.
 </t>
         </is>
       </c>
@@ -511,7 +523,9 @@
           <t>Liste d'espèces</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Selon ITIS :
 Neogaerrhinum filipes (Gray) Rothm. (Antirrhinum filipes (Gray) selon APG III)
